--- a/data/pca/factorExposure/factorExposure_2015-09-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02707882220018479</v>
+        <v>0.02239013408261057</v>
       </c>
       <c r="C2">
-        <v>-0.03194986781110439</v>
+        <v>-0.04306716088678008</v>
       </c>
       <c r="D2">
-        <v>-0.1144172513909404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1288874089866101</v>
+      </c>
+      <c r="E2">
+        <v>-0.03964532809366969</v>
+      </c>
+      <c r="F2">
+        <v>-0.03304723592026231</v>
+      </c>
+      <c r="G2">
+        <v>0.0848123348896752</v>
+      </c>
+      <c r="H2">
+        <v>0.0702528610153276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.004631132920555341</v>
+        <v>-0.009423926165146115</v>
       </c>
       <c r="C3">
-        <v>-0.05595080160826787</v>
+        <v>-0.04068836064459169</v>
       </c>
       <c r="D3">
-        <v>-0.05376643727815544</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04336310539359015</v>
+      </c>
+      <c r="E3">
+        <v>-0.05348271333119786</v>
+      </c>
+      <c r="F3">
+        <v>-0.05592424995822494</v>
+      </c>
+      <c r="G3">
+        <v>0.1156869214473063</v>
+      </c>
+      <c r="H3">
+        <v>0.04328830909128313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05161320046566924</v>
+        <v>0.04331642863115136</v>
       </c>
       <c r="C4">
-        <v>-0.06851846020605909</v>
+        <v>-0.08454872787228193</v>
       </c>
       <c r="D4">
-        <v>-0.127145410014305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.14536387462492</v>
+      </c>
+      <c r="E4">
+        <v>-0.055582737025694</v>
+      </c>
+      <c r="F4">
+        <v>-0.0593624217984064</v>
+      </c>
+      <c r="G4">
+        <v>-0.04770281517376449</v>
+      </c>
+      <c r="H4">
+        <v>0.01197981933407004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03352027391181863</v>
+        <v>0.03256282102486136</v>
       </c>
       <c r="C6">
-        <v>-0.02538162073007645</v>
+        <v>-0.03416269236688579</v>
       </c>
       <c r="D6">
-        <v>-0.1491323681345552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1394308737047335</v>
+      </c>
+      <c r="E6">
+        <v>-0.01075746999034276</v>
+      </c>
+      <c r="F6">
+        <v>-0.05668795566500977</v>
+      </c>
+      <c r="G6">
+        <v>0.007037662281972596</v>
+      </c>
+      <c r="H6">
+        <v>0.06058559237722534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.018470368554668</v>
+        <v>0.0139799861581834</v>
       </c>
       <c r="C7">
-        <v>-0.03304604677575203</v>
+        <v>-0.03936428317935702</v>
       </c>
       <c r="D7">
-        <v>-0.1124640780230101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0990746725816302</v>
+      </c>
+      <c r="E7">
+        <v>0.00919024902374216</v>
+      </c>
+      <c r="F7">
+        <v>-0.02564276683201705</v>
+      </c>
+      <c r="G7">
+        <v>0.02124022271278442</v>
+      </c>
+      <c r="H7">
+        <v>0.06171987222290051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01149288350576791</v>
+        <v>0.005790244184358031</v>
       </c>
       <c r="C8">
-        <v>-0.03509790482381569</v>
+        <v>-0.0401688486729487</v>
       </c>
       <c r="D8">
-        <v>-0.06433652242234957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07747281042481598</v>
+      </c>
+      <c r="E8">
+        <v>-0.02191275486986073</v>
+      </c>
+      <c r="F8">
+        <v>-0.07226684239994212</v>
+      </c>
+      <c r="G8">
+        <v>0.05490140587493757</v>
+      </c>
+      <c r="H8">
+        <v>0.03950685755892695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04001046571763908</v>
+        <v>0.03257441236086036</v>
       </c>
       <c r="C9">
-        <v>-0.06087839106495335</v>
+        <v>-0.07316138910861587</v>
       </c>
       <c r="D9">
-        <v>-0.1178454510032955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1241994467251771</v>
+      </c>
+      <c r="E9">
+        <v>-0.03694135246494303</v>
+      </c>
+      <c r="F9">
+        <v>-0.03709107875234855</v>
+      </c>
+      <c r="G9">
+        <v>-0.03273674084300032</v>
+      </c>
+      <c r="H9">
+        <v>0.004702872591789396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1288145924171405</v>
+        <v>0.1789169925773067</v>
       </c>
       <c r="C10">
-        <v>0.1878255111569275</v>
+        <v>0.1696669191807176</v>
       </c>
       <c r="D10">
-        <v>0.0005800444689394946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008195836313973548</v>
+      </c>
+      <c r="E10">
+        <v>-0.03485998088086101</v>
+      </c>
+      <c r="F10">
+        <v>-0.04084973883050001</v>
+      </c>
+      <c r="G10">
+        <v>-0.00932057236014748</v>
+      </c>
+      <c r="H10">
+        <v>-0.04828194795997523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03315796078140771</v>
+        <v>0.02661562262118949</v>
       </c>
       <c r="C11">
-        <v>-0.04287626342088403</v>
+        <v>-0.05150903878813928</v>
       </c>
       <c r="D11">
-        <v>-0.06070978539670963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05447930953421766</v>
+      </c>
+      <c r="E11">
+        <v>0.01635894973214451</v>
+      </c>
+      <c r="F11">
+        <v>0.005424274411970175</v>
+      </c>
+      <c r="G11">
+        <v>0.01214410729577186</v>
+      </c>
+      <c r="H11">
+        <v>0.02821327349228782</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03878484011493569</v>
+        <v>0.03022304255508905</v>
       </c>
       <c r="C12">
-        <v>-0.04530075267904666</v>
+        <v>-0.05243325167710437</v>
       </c>
       <c r="D12">
-        <v>-0.06713423752512242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0544797132581691</v>
+      </c>
+      <c r="E12">
+        <v>0.00836684023775823</v>
+      </c>
+      <c r="F12">
+        <v>0.01016547691610068</v>
+      </c>
+      <c r="G12">
+        <v>0.01242681722122103</v>
+      </c>
+      <c r="H12">
+        <v>0.03160507087837386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.011255867628753</v>
+        <v>0.01342929316988572</v>
       </c>
       <c r="C13">
-        <v>-0.03739639671914285</v>
+        <v>-0.04590196426689232</v>
       </c>
       <c r="D13">
-        <v>-0.143686471993042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1589847765125327</v>
+      </c>
+      <c r="E13">
+        <v>-0.005671723850445761</v>
+      </c>
+      <c r="F13">
+        <v>-0.07144399127367591</v>
+      </c>
+      <c r="G13">
+        <v>0.04035655268401878</v>
+      </c>
+      <c r="H13">
+        <v>0.03341315477481827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.004233646734130605</v>
+        <v>0.005196645938739882</v>
       </c>
       <c r="C14">
-        <v>-0.02535666350078472</v>
+        <v>-0.02869899726549949</v>
       </c>
       <c r="D14">
-        <v>-0.1050491063290801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1055455367234571</v>
+      </c>
+      <c r="E14">
+        <v>-0.01428446745781321</v>
+      </c>
+      <c r="F14">
+        <v>-0.02722796686228627</v>
+      </c>
+      <c r="G14">
+        <v>0.02650901669546014</v>
+      </c>
+      <c r="H14">
+        <v>0.08650132505963204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.003584775005715068</v>
+        <v>0.00159009288399619</v>
       </c>
       <c r="C15">
-        <v>-0.006280628146179311</v>
+        <v>-0.01449705371231667</v>
       </c>
       <c r="D15">
-        <v>-0.009999258959149038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04041091016166171</v>
+      </c>
+      <c r="E15">
+        <v>-0.00763292900491326</v>
+      </c>
+      <c r="F15">
+        <v>-0.007892190072453143</v>
+      </c>
+      <c r="G15">
+        <v>0.00911400501042761</v>
+      </c>
+      <c r="H15">
+        <v>0.02002862829530992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02980056403711558</v>
+        <v>0.02438572082506681</v>
       </c>
       <c r="C16">
-        <v>-0.04477793363164532</v>
+        <v>-0.05019097526615492</v>
       </c>
       <c r="D16">
-        <v>-0.0706799057119202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06055692227068774</v>
+      </c>
+      <c r="E16">
+        <v>0.0008984773561589725</v>
+      </c>
+      <c r="F16">
+        <v>-0.001541955131642406</v>
+      </c>
+      <c r="G16">
+        <v>0.01056653491565041</v>
+      </c>
+      <c r="H16">
+        <v>0.04341113330492028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0109740524066811</v>
+        <v>0.006282589489590911</v>
       </c>
       <c r="C19">
-        <v>-0.03140952839884709</v>
+        <v>-0.02753774442717711</v>
       </c>
       <c r="D19">
-        <v>-0.1508039496892108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1138078704020524</v>
+      </c>
+      <c r="E19">
+        <v>-0.04630065711534994</v>
+      </c>
+      <c r="F19">
+        <v>-0.01231790109710301</v>
+      </c>
+      <c r="G19">
+        <v>0.02570423781777187</v>
+      </c>
+      <c r="H19">
+        <v>0.04677681017482161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0139528805109206</v>
+        <v>0.01349782533826831</v>
       </c>
       <c r="C20">
-        <v>-0.03607523580767848</v>
+        <v>-0.04079232889831218</v>
       </c>
       <c r="D20">
-        <v>-0.09466487270523338</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1062270918981238</v>
+      </c>
+      <c r="E20">
+        <v>-0.03501225566979924</v>
+      </c>
+      <c r="F20">
+        <v>-0.02446169973974</v>
+      </c>
+      <c r="G20">
+        <v>0.007474882475830461</v>
+      </c>
+      <c r="H20">
+        <v>0.05372500040090396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009978626214404025</v>
+        <v>0.00677603968645931</v>
       </c>
       <c r="C21">
-        <v>-0.03942188854945514</v>
+        <v>-0.04617565066390995</v>
       </c>
       <c r="D21">
-        <v>-0.1542902560133217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1540032921078872</v>
+      </c>
+      <c r="E21">
+        <v>-0.06305885761521078</v>
+      </c>
+      <c r="F21">
+        <v>-0.06161482148408686</v>
+      </c>
+      <c r="G21">
+        <v>0.00851240639917486</v>
+      </c>
+      <c r="H21">
+        <v>0.07930476931091321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001704380771323515</v>
+        <v>0.007516917680850307</v>
       </c>
       <c r="C22">
-        <v>-0.05036443875859408</v>
+        <v>-0.05400520805478096</v>
       </c>
       <c r="D22">
-        <v>-0.1302211068630318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1920757381546191</v>
+      </c>
+      <c r="E22">
+        <v>-0.005011997949442207</v>
+      </c>
+      <c r="F22">
+        <v>-0.1241481646184618</v>
+      </c>
+      <c r="G22">
+        <v>0.1268329210441453</v>
+      </c>
+      <c r="H22">
+        <v>-0.07284108122121404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001883311975383083</v>
+        <v>0.007589520946461706</v>
       </c>
       <c r="C23">
-        <v>-0.05067757378928184</v>
+        <v>-0.05456753961694634</v>
       </c>
       <c r="D23">
-        <v>-0.1296260229321606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1911923882449466</v>
+      </c>
+      <c r="E23">
+        <v>-0.005220198468921346</v>
+      </c>
+      <c r="F23">
+        <v>-0.1241618079848652</v>
+      </c>
+      <c r="G23">
+        <v>0.1261538366297997</v>
+      </c>
+      <c r="H23">
+        <v>-0.07291149916363512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03675861457037486</v>
+        <v>0.0272895340596643</v>
       </c>
       <c r="C24">
-        <v>-0.05761951871843768</v>
+        <v>-0.06258669013696984</v>
       </c>
       <c r="D24">
-        <v>-0.07009536209444051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0605524139574153</v>
+      </c>
+      <c r="E24">
+        <v>0.002995466512030872</v>
+      </c>
+      <c r="F24">
+        <v>0.0007399982855706518</v>
+      </c>
+      <c r="G24">
+        <v>0.004549958388911156</v>
+      </c>
+      <c r="H24">
+        <v>0.05506225738347185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04124763825599172</v>
+        <v>0.03227944183378123</v>
       </c>
       <c r="C25">
-        <v>-0.05127423909773142</v>
+        <v>-0.05961384232845855</v>
       </c>
       <c r="D25">
-        <v>-0.06796889748585691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06025271904274972</v>
+      </c>
+      <c r="E25">
+        <v>-0.002251244151210934</v>
+      </c>
+      <c r="F25">
+        <v>-0.002229208220310223</v>
+      </c>
+      <c r="G25">
+        <v>0.01145422853431799</v>
+      </c>
+      <c r="H25">
+        <v>0.02105603033365866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01339452711149154</v>
+        <v>0.01297440370596946</v>
       </c>
       <c r="C26">
-        <v>-0.01683145404918988</v>
+        <v>-0.02462138407076641</v>
       </c>
       <c r="D26">
-        <v>-0.07355970679080637</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0740227275433452</v>
+      </c>
+      <c r="E26">
+        <v>-0.007398345058587746</v>
+      </c>
+      <c r="F26">
+        <v>-0.02900440957832494</v>
+      </c>
+      <c r="G26">
+        <v>0.01502846741994378</v>
+      </c>
+      <c r="H26">
+        <v>0.04696782612297835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1911083983679804</v>
+        <v>0.2561801083697822</v>
       </c>
       <c r="C28">
-        <v>0.2513203882192758</v>
+        <v>0.2191813095689275</v>
       </c>
       <c r="D28">
-        <v>0.006632409482305615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00336520230912604</v>
+      </c>
+      <c r="E28">
+        <v>-0.06272775312796507</v>
+      </c>
+      <c r="F28">
+        <v>-0.02628157214452882</v>
+      </c>
+      <c r="G28">
+        <v>-0.03733483129113327</v>
+      </c>
+      <c r="H28">
+        <v>-0.05753563104702813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.003226581886942806</v>
+        <v>0.00472742671115716</v>
       </c>
       <c r="C29">
-        <v>-0.02386148851033322</v>
+        <v>-0.02800280368097976</v>
       </c>
       <c r="D29">
-        <v>-0.09587340383113749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1033115716413328</v>
+      </c>
+      <c r="E29">
+        <v>8.687544701851216e-05</v>
+      </c>
+      <c r="F29">
+        <v>-0.04598092505124458</v>
+      </c>
+      <c r="G29">
+        <v>0.01851055566308051</v>
+      </c>
+      <c r="H29">
+        <v>0.08131388861640247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02912283238897766</v>
+        <v>0.02954653246000107</v>
       </c>
       <c r="C30">
-        <v>-0.06566439723104825</v>
+        <v>-0.07728468777120716</v>
       </c>
       <c r="D30">
-        <v>-0.1576646522764283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1670861865602759</v>
+      </c>
+      <c r="E30">
+        <v>-0.007575872707799596</v>
+      </c>
+      <c r="F30">
+        <v>-0.04088858505918405</v>
+      </c>
+      <c r="G30">
+        <v>0.001410761796028611</v>
+      </c>
+      <c r="H30">
+        <v>0.06820784936510096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05596543795550177</v>
+        <v>0.03962113476467432</v>
       </c>
       <c r="C31">
-        <v>-0.07411141532253013</v>
+        <v>-0.08234557692491715</v>
       </c>
       <c r="D31">
-        <v>-0.05759398293414869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0429392340997719</v>
+      </c>
+      <c r="E31">
+        <v>-0.01130251601750363</v>
+      </c>
+      <c r="F31">
+        <v>-0.03600433515206343</v>
+      </c>
+      <c r="G31">
+        <v>0.01470061539558491</v>
+      </c>
+      <c r="H31">
+        <v>0.009911006097426156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0253730663942139</v>
+        <v>0.02355893409652044</v>
       </c>
       <c r="C32">
-        <v>-0.02516763572143614</v>
+        <v>-0.03098246434831164</v>
       </c>
       <c r="D32">
-        <v>-0.101284780734626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1215148649625919</v>
+      </c>
+      <c r="E32">
+        <v>-0.03863495879694665</v>
+      </c>
+      <c r="F32">
+        <v>-0.06005657846859457</v>
+      </c>
+      <c r="G32">
+        <v>0.0146139546415579</v>
+      </c>
+      <c r="H32">
+        <v>0.03271099304380522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02299322881613637</v>
+        <v>0.02179393691126042</v>
       </c>
       <c r="C33">
-        <v>-0.04494358533936588</v>
+        <v>-0.05213211355718328</v>
       </c>
       <c r="D33">
-        <v>-0.1483574368233317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1381374594412146</v>
+      </c>
+      <c r="E33">
+        <v>-0.02497910160360791</v>
+      </c>
+      <c r="F33">
+        <v>-0.03545884458861925</v>
+      </c>
+      <c r="G33">
+        <v>0.01129204045905668</v>
+      </c>
+      <c r="H33">
+        <v>0.04709154094660217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03486455304554155</v>
+        <v>0.02450035611810812</v>
       </c>
       <c r="C34">
-        <v>-0.06190864788628018</v>
+        <v>-0.06466844574010401</v>
       </c>
       <c r="D34">
-        <v>-0.06764728224911341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04994797405110919</v>
+      </c>
+      <c r="E34">
+        <v>0.01950599962223746</v>
+      </c>
+      <c r="F34">
+        <v>0.01549478225538291</v>
+      </c>
+      <c r="G34">
+        <v>0.02299494310539046</v>
+      </c>
+      <c r="H34">
+        <v>0.04273586802465722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001358875688369491</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002118582027778955</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01025660002885994</v>
+      </c>
+      <c r="E35">
+        <v>0.0005214603466091234</v>
+      </c>
+      <c r="F35">
+        <v>-0.002006391379068816</v>
+      </c>
+      <c r="G35">
+        <v>0.0007987549044835858</v>
+      </c>
+      <c r="H35">
+        <v>0.002932861433750269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01864568401727124</v>
+        <v>0.01820135927347124</v>
       </c>
       <c r="C36">
-        <v>-0.009748547471967918</v>
+        <v>-0.01980258377090588</v>
       </c>
       <c r="D36">
-        <v>-0.09542550277508387</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08721967259457417</v>
+      </c>
+      <c r="E36">
+        <v>-0.01670800021937248</v>
+      </c>
+      <c r="F36">
+        <v>-0.02278886639463742</v>
+      </c>
+      <c r="G36">
+        <v>-0.004618750447580019</v>
+      </c>
+      <c r="H36">
+        <v>0.04054724317981898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0178710102732065</v>
+        <v>0.02177059593884236</v>
       </c>
       <c r="C38">
-        <v>-0.01584952076083086</v>
+        <v>-0.01958304591935132</v>
       </c>
       <c r="D38">
-        <v>-0.08285559252354838</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0796744975279524</v>
+      </c>
+      <c r="E38">
+        <v>-0.0297623753570547</v>
+      </c>
+      <c r="F38">
+        <v>0.01089664136643077</v>
+      </c>
+      <c r="G38">
+        <v>0.0230560184335707</v>
+      </c>
+      <c r="H38">
+        <v>0.03438975693902031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03841066933834704</v>
+        <v>0.02948072700826538</v>
       </c>
       <c r="C39">
-        <v>-0.05881000575001727</v>
+        <v>-0.07372836656828249</v>
       </c>
       <c r="D39">
-        <v>-0.1099828205320347</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1097357324839996</v>
+      </c>
+      <c r="E39">
+        <v>0.009489382614856323</v>
+      </c>
+      <c r="F39">
+        <v>0.009080198152283102</v>
+      </c>
+      <c r="G39">
+        <v>0.002161275294408239</v>
+      </c>
+      <c r="H39">
+        <v>0.08804713487389677</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01563918045986288</v>
+        <v>0.01231502769260008</v>
       </c>
       <c r="C40">
-        <v>-0.04392019178462388</v>
+        <v>-0.0399750672230919</v>
       </c>
       <c r="D40">
-        <v>-0.08922557830002151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.0942024460711644</v>
+      </c>
+      <c r="E40">
+        <v>-0.02955187256408488</v>
+      </c>
+      <c r="F40">
+        <v>-0.1032889990871077</v>
+      </c>
+      <c r="G40">
+        <v>0.174756995574613</v>
+      </c>
+      <c r="H40">
+        <v>0.109363054713217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03036936077353635</v>
+        <v>0.02816227031194654</v>
       </c>
       <c r="C41">
-        <v>-0.004678871015367412</v>
+        <v>-0.01407806259317077</v>
       </c>
       <c r="D41">
-        <v>-0.07085866759299396</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05239882733120901</v>
+      </c>
+      <c r="E41">
+        <v>-0.04532919250678845</v>
+      </c>
+      <c r="F41">
+        <v>-0.01677275555969934</v>
+      </c>
+      <c r="G41">
+        <v>0.03202538214745877</v>
+      </c>
+      <c r="H41">
+        <v>0.0396515229272863</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02405900266599142</v>
+        <v>0.02006634236367938</v>
       </c>
       <c r="C43">
-        <v>-0.01365876355450391</v>
+        <v>-0.02048691532771372</v>
       </c>
       <c r="D43">
-        <v>-0.104777984212674</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08032370129889528</v>
+      </c>
+      <c r="E43">
+        <v>-0.02375643943679518</v>
+      </c>
+      <c r="F43">
+        <v>-0.01301463364746604</v>
+      </c>
+      <c r="G43">
+        <v>0.02544235541082146</v>
+      </c>
+      <c r="H43">
+        <v>0.04483503202799655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01079710813905019</v>
+        <v>0.01282244232329597</v>
       </c>
       <c r="C44">
-        <v>-0.04419909816006076</v>
+        <v>-0.04452474755285662</v>
       </c>
       <c r="D44">
-        <v>-0.09250392688324367</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1105294566015951</v>
+      </c>
+      <c r="E44">
+        <v>-0.02933156190836705</v>
+      </c>
+      <c r="F44">
+        <v>-0.02321506504460681</v>
+      </c>
+      <c r="G44">
+        <v>0.006876238670355843</v>
+      </c>
+      <c r="H44">
+        <v>0.04901863583500584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0143286016092165</v>
+        <v>0.009908663319540842</v>
       </c>
       <c r="C46">
-        <v>-0.02701202416145613</v>
+        <v>-0.03459137513028043</v>
       </c>
       <c r="D46">
-        <v>-0.1044777832868082</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09937901137792524</v>
+      </c>
+      <c r="E46">
+        <v>-0.01149314136205876</v>
+      </c>
+      <c r="F46">
+        <v>-0.02271786473675257</v>
+      </c>
+      <c r="G46">
+        <v>0.007872312623276239</v>
+      </c>
+      <c r="H46">
+        <v>0.08372803993414345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09124571188090462</v>
+        <v>0.07034267188215486</v>
       </c>
       <c r="C47">
-        <v>-0.08641278584433137</v>
+        <v>-0.1025034730105504</v>
       </c>
       <c r="D47">
-        <v>-0.03008433025777082</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02384542127765744</v>
+      </c>
+      <c r="E47">
+        <v>-0.02323690330273937</v>
+      </c>
+      <c r="F47">
+        <v>-0.02010794133630864</v>
+      </c>
+      <c r="G47">
+        <v>0.005585610138430237</v>
+      </c>
+      <c r="H47">
+        <v>-0.05777546361567729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01207838213985054</v>
+        <v>0.01305289232086499</v>
       </c>
       <c r="C48">
-        <v>-0.02182228092616264</v>
+        <v>-0.02660567842523319</v>
       </c>
       <c r="D48">
-        <v>-0.08663619026478206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08523086316976025</v>
+      </c>
+      <c r="E48">
+        <v>-0.04362555291414987</v>
+      </c>
+      <c r="F48">
+        <v>-0.03024460100776075</v>
+      </c>
+      <c r="G48">
+        <v>0.003432231823488259</v>
+      </c>
+      <c r="H48">
+        <v>0.05912180019019609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.05248431298944709</v>
+        <v>0.03807845883785107</v>
       </c>
       <c r="C50">
-        <v>-0.06014640008709487</v>
+        <v>-0.07026050920846458</v>
       </c>
       <c r="D50">
-        <v>-0.06428378585081429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05281048537162338</v>
+      </c>
+      <c r="E50">
+        <v>-0.01549829601539033</v>
+      </c>
+      <c r="F50">
+        <v>-0.03708578084013286</v>
+      </c>
+      <c r="G50">
+        <v>0.03976805596213012</v>
+      </c>
+      <c r="H50">
+        <v>-0.001034179396561014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01106969846621495</v>
+        <v>0.009197246982533632</v>
       </c>
       <c r="C51">
-        <v>-0.01759252879756102</v>
+        <v>-0.02336896786831094</v>
       </c>
       <c r="D51">
-        <v>-0.09133024303564913</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09455492186609701</v>
+      </c>
+      <c r="E51">
+        <v>0.005053887214344064</v>
+      </c>
+      <c r="F51">
+        <v>-0.008868856029392332</v>
+      </c>
+      <c r="G51">
+        <v>-0.002241212896269968</v>
+      </c>
+      <c r="H51">
+        <v>0.07380673017592214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1062284068669447</v>
+        <v>0.08984630508860614</v>
       </c>
       <c r="C53">
-        <v>-0.1051063082197803</v>
+        <v>-0.1248112095942972</v>
       </c>
       <c r="D53">
-        <v>0.01368089576406251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006231889240660537</v>
+      </c>
+      <c r="E53">
+        <v>-0.07254185396823253</v>
+      </c>
+      <c r="F53">
+        <v>-0.08065951245321257</v>
+      </c>
+      <c r="G53">
+        <v>0.002043111026834946</v>
+      </c>
+      <c r="H53">
+        <v>-0.01590270552778711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01926649996025898</v>
+        <v>0.01691164352875901</v>
       </c>
       <c r="C54">
-        <v>-0.02812997653950817</v>
+        <v>-0.03601358964193012</v>
       </c>
       <c r="D54">
-        <v>-0.1122631930996927</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09616450719748705</v>
+      </c>
+      <c r="E54">
+        <v>-0.0242351255227912</v>
+      </c>
+      <c r="F54">
+        <v>-0.01701771008863489</v>
+      </c>
+      <c r="G54">
+        <v>0.04310985519939804</v>
+      </c>
+      <c r="H54">
+        <v>0.06500147457400289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09840886399339488</v>
+        <v>0.08024200303727941</v>
       </c>
       <c r="C55">
-        <v>-0.08027489634256414</v>
+        <v>-0.099458261583766</v>
       </c>
       <c r="D55">
-        <v>0.02512261619764768</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02193090390472556</v>
+      </c>
+      <c r="E55">
+        <v>-0.02269796121737809</v>
+      </c>
+      <c r="F55">
+        <v>-0.06354942915179607</v>
+      </c>
+      <c r="G55">
+        <v>0.02677884721634798</v>
+      </c>
+      <c r="H55">
+        <v>-0.02138758657371087</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1366447710063655</v>
+        <v>0.1112943059392361</v>
       </c>
       <c r="C56">
-        <v>-0.1137385650159199</v>
+        <v>-0.1472733247390724</v>
       </c>
       <c r="D56">
-        <v>0.02471391858510869</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02428467319775707</v>
+      </c>
+      <c r="E56">
+        <v>-0.04926165142185984</v>
+      </c>
+      <c r="F56">
+        <v>-0.05321743536541799</v>
+      </c>
+      <c r="G56">
+        <v>0.03497096541544655</v>
+      </c>
+      <c r="H56">
+        <v>-0.03900059572155675</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.008494877952025024</v>
+        <v>0.001502356314246032</v>
       </c>
       <c r="C58">
-        <v>-0.04187264901247805</v>
+        <v>-0.05331016715262903</v>
       </c>
       <c r="D58">
-        <v>-0.1961050225321899</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2626874664619833</v>
+      </c>
+      <c r="E58">
+        <v>-0.09833985801966523</v>
+      </c>
+      <c r="F58">
+        <v>-0.1202711002029664</v>
+      </c>
+      <c r="G58">
+        <v>0.06933942411406217</v>
+      </c>
+      <c r="H58">
+        <v>-0.01699180079712779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1487128075415516</v>
+        <v>0.1967291157850086</v>
       </c>
       <c r="C59">
-        <v>0.1685568604030461</v>
+        <v>0.1400485381604838</v>
       </c>
       <c r="D59">
-        <v>-0.05889883324056349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0716572189422689</v>
+      </c>
+      <c r="E59">
+        <v>-0.04549175988354243</v>
+      </c>
+      <c r="F59">
+        <v>0.01823596106263168</v>
+      </c>
+      <c r="G59">
+        <v>-0.01277181361419909</v>
+      </c>
+      <c r="H59">
+        <v>-0.01781565675004089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2361996648888732</v>
+        <v>0.2111424458227207</v>
       </c>
       <c r="C60">
-        <v>-0.07766240042881874</v>
+        <v>-0.1292863477621881</v>
       </c>
       <c r="D60">
-        <v>-0.1664716558699313</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1110169811234613</v>
+      </c>
+      <c r="E60">
+        <v>0.3179720743323479</v>
+      </c>
+      <c r="F60">
+        <v>0.1074837143231868</v>
+      </c>
+      <c r="G60">
+        <v>-0.0847757497766016</v>
+      </c>
+      <c r="H60">
+        <v>-0.1829101671105186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0432804636758302</v>
+        <v>0.03315485256244668</v>
       </c>
       <c r="C61">
-        <v>-0.05631655467385173</v>
+        <v>-0.06752072314937439</v>
       </c>
       <c r="D61">
-        <v>-0.1168325554937825</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09690770622049687</v>
+      </c>
+      <c r="E61">
+        <v>0.01147154952060249</v>
+      </c>
+      <c r="F61">
+        <v>0.00892448900710115</v>
+      </c>
+      <c r="G61">
+        <v>0.0008228907043047473</v>
+      </c>
+      <c r="H61">
+        <v>0.04594180193743812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01453068592239309</v>
+        <v>0.01210558912363465</v>
       </c>
       <c r="C63">
-        <v>-0.02708054021335686</v>
+        <v>-0.03537365515115712</v>
       </c>
       <c r="D63">
-        <v>-0.08664980192599298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07705261417905439</v>
+      </c>
+      <c r="E63">
+        <v>0.0002790673353211338</v>
+      </c>
+      <c r="F63">
+        <v>-0.02383004105274471</v>
+      </c>
+      <c r="G63">
+        <v>0.00455822809524611</v>
+      </c>
+      <c r="H63">
+        <v>0.04966530116181748</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0573552721276634</v>
+        <v>0.04238167322181854</v>
       </c>
       <c r="C64">
-        <v>-0.0744619991077919</v>
+        <v>-0.08458279935259728</v>
       </c>
       <c r="D64">
-        <v>-0.05277894748385229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05210042507579013</v>
+      </c>
+      <c r="E64">
+        <v>-0.01095286265309236</v>
+      </c>
+      <c r="F64">
+        <v>-0.005241619295563819</v>
+      </c>
+      <c r="G64">
+        <v>-0.07457056018717421</v>
+      </c>
+      <c r="H64">
+        <v>0.07546521588577863</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0310825923960036</v>
+        <v>0.02847041734393526</v>
       </c>
       <c r="C65">
-        <v>-0.02253248086855693</v>
+        <v>-0.03463728426055863</v>
       </c>
       <c r="D65">
-        <v>-0.1122551777383373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1088489991081664</v>
+      </c>
+      <c r="E65">
+        <v>0.002696909284713424</v>
+      </c>
+      <c r="F65">
+        <v>-0.0328357413957056</v>
+      </c>
+      <c r="G65">
+        <v>0.01431361431386258</v>
+      </c>
+      <c r="H65">
+        <v>0.02589000757209708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04067586754108252</v>
+        <v>0.03189043644326395</v>
       </c>
       <c r="C66">
-        <v>-0.06794435996991413</v>
+        <v>-0.08609249623372266</v>
       </c>
       <c r="D66">
-        <v>-0.1228927704556624</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1348771113486775</v>
+      </c>
+      <c r="E66">
+        <v>0.005323392319068827</v>
+      </c>
+      <c r="F66">
+        <v>0.004026293024450168</v>
+      </c>
+      <c r="G66">
+        <v>0.01381319069273998</v>
+      </c>
+      <c r="H66">
+        <v>0.04688738674124191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03958252763285397</v>
+        <v>0.0375938709144841</v>
       </c>
       <c r="C67">
-        <v>-0.02132943595708363</v>
+        <v>-0.02848771273302818</v>
       </c>
       <c r="D67">
-        <v>-0.04619460681808855</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03384856717892801</v>
+      </c>
+      <c r="E67">
+        <v>-0.005870047057069525</v>
+      </c>
+      <c r="F67">
+        <v>0.02543422849253956</v>
+      </c>
+      <c r="G67">
+        <v>0.02230045778614344</v>
+      </c>
+      <c r="H67">
+        <v>0.03789113741545367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1819199143706778</v>
+        <v>0.2276364859255936</v>
       </c>
       <c r="C68">
-        <v>0.2024478896277328</v>
+        <v>0.1629319155037663</v>
       </c>
       <c r="D68">
-        <v>-0.02349516420912621</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0304039430478484</v>
+      </c>
+      <c r="E68">
+        <v>-0.01771068017816887</v>
+      </c>
+      <c r="F68">
+        <v>-0.03757356797772086</v>
+      </c>
+      <c r="G68">
+        <v>0.02818495595180253</v>
+      </c>
+      <c r="H68">
+        <v>-0.01543843003621232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08820979764689794</v>
+        <v>0.06528133864669478</v>
       </c>
       <c r="C69">
-        <v>-0.1020206701912217</v>
+        <v>-0.1090484975966293</v>
       </c>
       <c r="D69">
-        <v>-0.06691619224928408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04003857835433185</v>
+      </c>
+      <c r="E69">
+        <v>-0.003413613903694705</v>
+      </c>
+      <c r="F69">
+        <v>-0.007037316915359224</v>
+      </c>
+      <c r="G69">
+        <v>0.008989958516034976</v>
+      </c>
+      <c r="H69">
+        <v>-0.02976429488322995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1693352488472608</v>
+        <v>0.2158733818945056</v>
       </c>
       <c r="C71">
-        <v>0.2099642911527816</v>
+        <v>0.1725666953082243</v>
       </c>
       <c r="D71">
-        <v>-0.01679657135426998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02744588578797244</v>
+      </c>
+      <c r="E71">
+        <v>-0.03736168838255417</v>
+      </c>
+      <c r="F71">
+        <v>-0.05894933718066717</v>
+      </c>
+      <c r="G71">
+        <v>0.04731887086528044</v>
+      </c>
+      <c r="H71">
+        <v>-0.01703009903839799</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1117310206988748</v>
+        <v>0.09495772213282588</v>
       </c>
       <c r="C72">
-        <v>-0.06167739464870853</v>
+        <v>-0.09344017521921905</v>
       </c>
       <c r="D72">
-        <v>-0.08111044538344572</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08186303048739431</v>
+      </c>
+      <c r="E72">
+        <v>0.06457896644845688</v>
+      </c>
+      <c r="F72">
+        <v>-0.03872011197208294</v>
+      </c>
+      <c r="G72">
+        <v>0.0006084921990465433</v>
+      </c>
+      <c r="H72">
+        <v>0.02868976987707782</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2173212807407832</v>
+        <v>0.1930851681323346</v>
       </c>
       <c r="C73">
-        <v>-0.04453533280408955</v>
+        <v>-0.106167159993237</v>
       </c>
       <c r="D73">
-        <v>-0.2786202092131707</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1524067405233297</v>
+      </c>
+      <c r="E73">
+        <v>0.5689204870047121</v>
+      </c>
+      <c r="F73">
+        <v>0.1863992757202528</v>
+      </c>
+      <c r="G73">
+        <v>-0.1622902331583735</v>
+      </c>
+      <c r="H73">
+        <v>-0.2342738065166484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1114113871531693</v>
+        <v>0.08862465291918335</v>
       </c>
       <c r="C74">
-        <v>-0.08852342392721459</v>
+        <v>-0.1116544070000249</v>
       </c>
       <c r="D74">
-        <v>0.03781360890348433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03773655949118718</v>
+      </c>
+      <c r="E74">
+        <v>-0.02964822855232244</v>
+      </c>
+      <c r="F74">
+        <v>-0.06784175676710504</v>
+      </c>
+      <c r="G74">
+        <v>-0.01515909033235131</v>
+      </c>
+      <c r="H74">
+        <v>-0.0349273653333332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2583479282243728</v>
+        <v>0.2116217332901982</v>
       </c>
       <c r="C75">
-        <v>-0.1503589746949731</v>
+        <v>-0.2014653667903978</v>
       </c>
       <c r="D75">
-        <v>0.1307913613849323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1439698606693609</v>
+      </c>
+      <c r="E75">
+        <v>-0.08155109388343301</v>
+      </c>
+      <c r="F75">
+        <v>-0.01900619847268068</v>
+      </c>
+      <c r="G75">
+        <v>0.05343593617040814</v>
+      </c>
+      <c r="H75">
+        <v>-0.05002465366883099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1473815079102254</v>
+        <v>0.1163717174642321</v>
       </c>
       <c r="C76">
-        <v>-0.1167799080744881</v>
+        <v>-0.1437952507329965</v>
       </c>
       <c r="D76">
-        <v>0.02370011994004782</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03186142335899957</v>
+      </c>
+      <c r="E76">
+        <v>-0.06491035380293354</v>
+      </c>
+      <c r="F76">
+        <v>-0.03286622678538124</v>
+      </c>
+      <c r="G76">
+        <v>0.02457581890723422</v>
+      </c>
+      <c r="H76">
+        <v>0.02219396338112054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.04440697942485938</v>
+        <v>0.04722502919583477</v>
       </c>
       <c r="C77">
-        <v>-0.07805481379427046</v>
+        <v>-0.08429672997322009</v>
       </c>
       <c r="D77">
-        <v>-0.04253996640477083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1420844929606298</v>
+      </c>
+      <c r="E77">
+        <v>-0.511957991122974</v>
+      </c>
+      <c r="F77">
+        <v>0.3856724115406548</v>
+      </c>
+      <c r="G77">
+        <v>0.1264648933771982</v>
+      </c>
+      <c r="H77">
+        <v>-0.6473437347682691</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0417365282637291</v>
+        <v>0.03810758899195126</v>
       </c>
       <c r="C78">
-        <v>-0.06243308604271416</v>
+        <v>-0.07479332881548907</v>
       </c>
       <c r="D78">
-        <v>-0.1380447753948816</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1401411929470197</v>
+      </c>
+      <c r="E78">
+        <v>-0.007580276633949688</v>
+      </c>
+      <c r="F78">
+        <v>-0.03882039259343543</v>
+      </c>
+      <c r="G78">
+        <v>-0.004442497948956653</v>
+      </c>
+      <c r="H78">
+        <v>-0.01382511023211558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.06242068435368847</v>
+        <v>0.05356005835074303</v>
       </c>
       <c r="C79">
-        <v>-0.1054634672086103</v>
+        <v>-0.1203438780992201</v>
       </c>
       <c r="D79">
-        <v>0.1567090833913762</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06697821398241065</v>
+      </c>
+      <c r="E79">
+        <v>-0.2154997212685239</v>
+      </c>
+      <c r="F79">
+        <v>-0.4586842882142109</v>
+      </c>
+      <c r="G79">
+        <v>-0.7460665155450569</v>
+      </c>
+      <c r="H79">
+        <v>-0.1498955184876004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02183960528101623</v>
+        <v>0.01741156776812049</v>
       </c>
       <c r="C80">
-        <v>-0.04897177294256732</v>
+        <v>-0.04943202448320151</v>
       </c>
       <c r="D80">
-        <v>-0.03040886647910368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02594236664946505</v>
+      </c>
+      <c r="E80">
+        <v>-0.0009070201437617707</v>
+      </c>
+      <c r="F80">
+        <v>-0.01885926497033722</v>
+      </c>
+      <c r="G80">
+        <v>0.02800517207758548</v>
+      </c>
+      <c r="H80">
+        <v>0.05150824808402959</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1347677332840629</v>
+        <v>0.1023098856522245</v>
       </c>
       <c r="C81">
-        <v>-0.1187053901191766</v>
+        <v>-0.140398138911453</v>
       </c>
       <c r="D81">
-        <v>0.1035930016624325</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1022223592314085</v>
+      </c>
+      <c r="E81">
+        <v>-0.09034733712517264</v>
+      </c>
+      <c r="F81">
+        <v>-0.05462514480340679</v>
+      </c>
+      <c r="G81">
+        <v>0.02242807981004048</v>
+      </c>
+      <c r="H81">
+        <v>0.02313268697837022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.268085722966444</v>
+        <v>0.1985188636984251</v>
       </c>
       <c r="C82">
-        <v>-0.2399429405765761</v>
+        <v>-0.2666905086437756</v>
       </c>
       <c r="D82">
-        <v>0.2329193485093877</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2344704152639786</v>
+      </c>
+      <c r="E82">
+        <v>-0.003168219671801901</v>
+      </c>
+      <c r="F82">
+        <v>0.05750028484957288</v>
+      </c>
+      <c r="G82">
+        <v>0.069800887608766</v>
+      </c>
+      <c r="H82">
+        <v>0.001879031190006659</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02609242284650316</v>
+        <v>0.0154857906374425</v>
       </c>
       <c r="C83">
-        <v>-0.06015277286709421</v>
+        <v>-0.05610397740887872</v>
       </c>
       <c r="D83">
-        <v>-0.05409817261166812</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05919424200209302</v>
+      </c>
+      <c r="E83">
+        <v>-0.05994574887357499</v>
+      </c>
+      <c r="F83">
+        <v>0.07388602061194477</v>
+      </c>
+      <c r="G83">
+        <v>-0.004784703006780295</v>
+      </c>
+      <c r="H83">
+        <v>-0.02194095120274312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001292483010706593</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.007883626087485503</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02242876709331057</v>
+      </c>
+      <c r="E84">
+        <v>-0.01433151302875211</v>
+      </c>
+      <c r="F84">
+        <v>-0.02399135698886379</v>
+      </c>
+      <c r="G84">
+        <v>0.01261816179005878</v>
+      </c>
+      <c r="H84">
+        <v>0.02301506204104176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1688424822936603</v>
+        <v>0.134000495675508</v>
       </c>
       <c r="C85">
-        <v>-0.12303917039207</v>
+        <v>-0.1615611528323821</v>
       </c>
       <c r="D85">
-        <v>0.06744886272447566</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08736701971834179</v>
+      </c>
+      <c r="E85">
+        <v>-0.01943002749967179</v>
+      </c>
+      <c r="F85">
+        <v>-0.05823847661059468</v>
+      </c>
+      <c r="G85">
+        <v>-0.04970308779207656</v>
+      </c>
+      <c r="H85">
+        <v>0.02343456391282614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02133121587670178</v>
+        <v>0.01842292868486718</v>
       </c>
       <c r="C86">
-        <v>-0.03613728396877777</v>
+        <v>-0.03706046246268684</v>
       </c>
       <c r="D86">
-        <v>-0.1176306944032828</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1202567149553532</v>
+      </c>
+      <c r="E86">
+        <v>-0.02340590623842251</v>
+      </c>
+      <c r="F86">
+        <v>0.01648653560969279</v>
+      </c>
+      <c r="G86">
+        <v>0.03642450306286897</v>
+      </c>
+      <c r="H86">
+        <v>-0.0651352211254667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02623115463149531</v>
+        <v>0.02995582735160103</v>
       </c>
       <c r="C87">
-        <v>-0.02604237197857322</v>
+        <v>-0.03925659537813347</v>
       </c>
       <c r="D87">
-        <v>-0.1156206641364415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1428215419006025</v>
+      </c>
+      <c r="E87">
+        <v>-0.05375697610110715</v>
+      </c>
+      <c r="F87">
+        <v>-0.03349629623160719</v>
+      </c>
+      <c r="G87">
+        <v>0.0188437522981485</v>
+      </c>
+      <c r="H87">
+        <v>0.05076080393614302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.06941554662212074</v>
+        <v>0.05603919402252071</v>
       </c>
       <c r="C88">
-        <v>-0.04611752022007876</v>
+        <v>-0.06225230932317709</v>
       </c>
       <c r="D88">
-        <v>-0.04894365229979766</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02229978511041233</v>
+      </c>
+      <c r="E88">
+        <v>9.080599165392455e-05</v>
+      </c>
+      <c r="F88">
+        <v>-0.0274442964854836</v>
+      </c>
+      <c r="G88">
+        <v>-0.007101741741656831</v>
+      </c>
+      <c r="H88">
+        <v>0.03692712232974811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2664224001457986</v>
+        <v>0.3326498926093956</v>
       </c>
       <c r="C89">
-        <v>0.3824106855932952</v>
+        <v>0.3029695649556848</v>
       </c>
       <c r="D89">
-        <v>-0.002145907543983492</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.008398322754914487</v>
+      </c>
+      <c r="E89">
+        <v>-0.05980629922005912</v>
+      </c>
+      <c r="F89">
+        <v>-0.009145445819898738</v>
+      </c>
+      <c r="G89">
+        <v>-0.02403419644713743</v>
+      </c>
+      <c r="H89">
+        <v>0.1599202278984308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2196989985084759</v>
+        <v>0.268342124923482</v>
       </c>
       <c r="C90">
-        <v>0.2766055288983563</v>
+        <v>0.2122002044466267</v>
       </c>
       <c r="D90">
-        <v>-0.02719866698509699</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03642146972665523</v>
+      </c>
+      <c r="E90">
+        <v>-0.03979391765363902</v>
+      </c>
+      <c r="F90">
+        <v>-0.003370952560918884</v>
+      </c>
+      <c r="G90">
+        <v>0.06097264341840896</v>
+      </c>
+      <c r="H90">
+        <v>0.02025941013352865</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1733667004562555</v>
+        <v>0.1330575956475669</v>
       </c>
       <c r="C91">
-        <v>-0.1619298175857905</v>
+        <v>-0.1796351971259425</v>
       </c>
       <c r="D91">
-        <v>0.126598568277259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1179370307166596</v>
+      </c>
+      <c r="E91">
+        <v>-0.09712850584403505</v>
+      </c>
+      <c r="F91">
+        <v>-0.06536849770184196</v>
+      </c>
+      <c r="G91">
+        <v>-0.03147562608725461</v>
+      </c>
+      <c r="H91">
+        <v>-0.03570248352235392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1848216741783069</v>
+        <v>0.2564718439237845</v>
       </c>
       <c r="C92">
-        <v>0.2698578857783969</v>
+        <v>0.2362392376936266</v>
       </c>
       <c r="D92">
-        <v>-0.0210032115195813</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03421810247474441</v>
+      </c>
+      <c r="E92">
+        <v>-0.1028165802650498</v>
+      </c>
+      <c r="F92">
+        <v>-0.01381784711977466</v>
+      </c>
+      <c r="G92">
+        <v>0.005500263558098065</v>
+      </c>
+      <c r="H92">
+        <v>0.05580364113866309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2384483980732486</v>
+        <v>0.2849914869436799</v>
       </c>
       <c r="C93">
-        <v>0.3029938132609545</v>
+        <v>0.2317772764623757</v>
       </c>
       <c r="D93">
-        <v>-0.02882155042093549</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01066969011227965</v>
+      </c>
+      <c r="E93">
+        <v>0.02397579188750695</v>
+      </c>
+      <c r="F93">
+        <v>-0.03717974438319613</v>
+      </c>
+      <c r="G93">
+        <v>-0.01393671948984456</v>
+      </c>
+      <c r="H93">
+        <v>-0.03539498860367466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3576643833035431</v>
+        <v>0.2871211647697307</v>
       </c>
       <c r="C94">
-        <v>-0.203245138272566</v>
+        <v>-0.2843840188400753</v>
       </c>
       <c r="D94">
-        <v>0.3494465508985382</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3776068526109112</v>
+      </c>
+      <c r="E94">
+        <v>-0.02334131127369104</v>
+      </c>
+      <c r="F94">
+        <v>0.03670362142823261</v>
+      </c>
+      <c r="G94">
+        <v>0.2598364740282835</v>
+      </c>
+      <c r="H94">
+        <v>0.24023053273461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07082167391674943</v>
+        <v>0.06244557902334505</v>
       </c>
       <c r="C95">
-        <v>-0.07003165663848401</v>
+        <v>-0.08148436813384904</v>
       </c>
       <c r="D95">
-        <v>-0.1567848670293127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1257815279241951</v>
+      </c>
+      <c r="E95">
+        <v>-0.2159249116965802</v>
+      </c>
+      <c r="F95">
+        <v>0.6511612991533114</v>
+      </c>
+      <c r="G95">
+        <v>-0.4243522836542979</v>
+      </c>
+      <c r="H95">
+        <v>0.433465346395543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-6.686780059919276e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0002337417044604501</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001201268494734045</v>
+      </c>
+      <c r="E97">
+        <v>0.0005204437790332629</v>
+      </c>
+      <c r="F97">
+        <v>-0.000162486815443174</v>
+      </c>
+      <c r="G97">
+        <v>-1.617353177675081e-05</v>
+      </c>
+      <c r="H97">
+        <v>-0.0004218410605339615</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1759715599197768</v>
+        <v>0.1609952652638969</v>
       </c>
       <c r="C98">
-        <v>-0.05715364305522719</v>
+        <v>-0.1019669775114642</v>
       </c>
       <c r="D98">
-        <v>-0.1463861183438563</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.09815813424999754</v>
+      </c>
+      <c r="E98">
+        <v>0.3237878527475437</v>
+      </c>
+      <c r="F98">
+        <v>0.08890226620761901</v>
+      </c>
+      <c r="G98">
+        <v>-0.07894778877974729</v>
+      </c>
+      <c r="H98">
+        <v>-0.1368990606430034</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.003344070295279787</v>
+        <v>0.004923278272466642</v>
       </c>
       <c r="C101">
-        <v>-0.02321543932468037</v>
+        <v>-0.0272255220597701</v>
       </c>
       <c r="D101">
-        <v>-0.09599232176304871</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1030987864750501</v>
+      </c>
+      <c r="E101">
+        <v>-0.0008565212323381234</v>
+      </c>
+      <c r="F101">
+        <v>-0.0455064981036283</v>
+      </c>
+      <c r="G101">
+        <v>0.01797936269253526</v>
+      </c>
+      <c r="H101">
+        <v>0.08143483571923506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1258145834631824</v>
+        <v>0.08876672698898129</v>
       </c>
       <c r="C102">
-        <v>-0.1267940506952679</v>
+        <v>-0.1331779965081415</v>
       </c>
       <c r="D102">
-        <v>0.09619291419618027</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.1003923098782176</v>
+      </c>
+      <c r="E102">
+        <v>-0.0255479384926179</v>
+      </c>
+      <c r="F102">
+        <v>0.03888414259779526</v>
+      </c>
+      <c r="G102">
+        <v>0.0271480539448447</v>
+      </c>
+      <c r="H102">
+        <v>-0.003373456240862279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
